--- a/results/mp/deberta/corona/confidence/168/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -115,10 +115,10 @@
     <t>support</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>safety</t>
   </si>
   <si>
     <t>fresh</t>
@@ -1408,25 +1408,25 @@
         <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6939655172413793</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L19">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="N19">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1434,13 +1434,13 @@
         <v>34</v>
       </c>
       <c r="K20">
-        <v>0.6862745098039216</v>
+        <v>0.6736401673640168</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1564,25 +1564,25 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.6128048780487805</v>
+        <v>0.5911764705882353</v>
       </c>
       <c r="L25">
         <v>201</v>
       </c>
       <c r="M25">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="10:17">
